--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N2">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O2">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P2">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q2">
-        <v>34.993886474624</v>
+        <v>47.56632229539378</v>
       </c>
       <c r="R2">
-        <v>314.944978271616</v>
+        <v>428.096900658544</v>
       </c>
       <c r="S2">
-        <v>0.1926661667860838</v>
+        <v>0.2700537328290256</v>
       </c>
       <c r="T2">
-        <v>0.1926661667860838</v>
+        <v>0.2700537328290255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N3">
         <v>14.679873</v>
       </c>
       <c r="O3">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P3">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q3">
-        <v>4.488943684796999</v>
+        <v>6.113485305954002</v>
       </c>
       <c r="R3">
-        <v>40.40049316317299</v>
+        <v>55.02136775358601</v>
       </c>
       <c r="S3">
-        <v>0.02471481906691329</v>
+        <v>0.03470879075358223</v>
       </c>
       <c r="T3">
-        <v>0.02471481906691329</v>
+        <v>0.03470879075358221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N4">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O4">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P4">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q4">
-        <v>14.90299691969</v>
+        <v>12.19965708901333</v>
       </c>
       <c r="R4">
-        <v>134.12697227721</v>
+        <v>109.79691380112</v>
       </c>
       <c r="S4">
-        <v>0.08205156898544627</v>
+        <v>0.06926251131341246</v>
       </c>
       <c r="T4">
-        <v>0.08205156898544629</v>
+        <v>0.06926251131341243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N5">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O5">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P5">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q5">
-        <v>1.916033204063</v>
+        <v>2.727455117093778</v>
       </c>
       <c r="R5">
-        <v>17.244298836567</v>
+        <v>24.547096053844</v>
       </c>
       <c r="S5">
-        <v>0.01054912186245363</v>
+        <v>0.01548489351185615</v>
       </c>
       <c r="T5">
-        <v>0.01054912186245363</v>
+        <v>0.01548489351185615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N6">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O6">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P6">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q6">
-        <v>15.366133319108</v>
+        <v>7.797386939001111</v>
       </c>
       <c r="R6">
-        <v>138.295199871972</v>
+        <v>70.17648245101</v>
       </c>
       <c r="S6">
-        <v>0.08460146337456138</v>
+        <v>0.04426899847570205</v>
       </c>
       <c r="T6">
-        <v>0.0846014633745614</v>
+        <v>0.04426899847570204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N7">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O7">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P7">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q7">
-        <v>31.433948672896</v>
+        <v>31.373402388152</v>
       </c>
       <c r="R7">
-        <v>282.905538056064</v>
+        <v>282.3606214933679</v>
       </c>
       <c r="S7">
-        <v>0.1730661840647253</v>
+        <v>0.1781198128762621</v>
       </c>
       <c r="T7">
-        <v>0.1730661840647253</v>
+        <v>0.178119812876262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N8">
         <v>14.679873</v>
       </c>
       <c r="O8">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P8">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q8">
         <v>4.032282195513</v>
@@ -948,10 +948,10 @@
         <v>36.290539759617</v>
       </c>
       <c r="S8">
-        <v>0.02220057365084686</v>
+        <v>0.02289293782176123</v>
       </c>
       <c r="T8">
-        <v>0.02220057365084686</v>
+        <v>0.02289293782176122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N9">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O9">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P9">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q9">
-        <v>13.38691089901</v>
+        <v>8.046549162959998</v>
       </c>
       <c r="R9">
-        <v>120.48219809109</v>
+        <v>72.41894246663999</v>
       </c>
       <c r="S9">
-        <v>0.07370444005667755</v>
+        <v>0.04568359572461729</v>
       </c>
       <c r="T9">
-        <v>0.07370444005667756</v>
+        <v>0.04568359572461727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N10">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O10">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P10">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q10">
-        <v>1.721114613427</v>
+        <v>1.798952341802</v>
       </c>
       <c r="R10">
-        <v>15.490031520843</v>
+        <v>16.190571076218</v>
       </c>
       <c r="S10">
-        <v>0.009475956762017686</v>
+        <v>0.01021339829613425</v>
       </c>
       <c r="T10">
-        <v>0.009475956762017687</v>
+        <v>0.01021339829613424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N11">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O11">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P11">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q11">
-        <v>13.802932303732</v>
+        <v>5.142936140704999</v>
       </c>
       <c r="R11">
-        <v>124.226390733588</v>
+        <v>46.286425266345</v>
       </c>
       <c r="S11">
-        <v>0.07599493298054506</v>
+        <v>0.0291985807494977</v>
       </c>
       <c r="T11">
-        <v>0.07599493298054509</v>
+        <v>0.02919858074949769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N12">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O12">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P12">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q12">
-        <v>6.565347123925333</v>
+        <v>1.539576995098667</v>
       </c>
       <c r="R12">
-        <v>59.08812411532799</v>
+        <v>13.856192955888</v>
       </c>
       <c r="S12">
-        <v>0.03614689282666552</v>
+        <v>0.00874081691500357</v>
       </c>
       <c r="T12">
-        <v>0.03614689282666553</v>
+        <v>0.008740816915003568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H13">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I13">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J13">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N13">
         <v>14.679873</v>
       </c>
       <c r="O13">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P13">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q13">
-        <v>0.8421892073009999</v>
+        <v>0.197874901458</v>
       </c>
       <c r="R13">
-        <v>7.579702865708998</v>
+        <v>1.780874113122</v>
       </c>
       <c r="S13">
-        <v>0.004636848964945887</v>
+        <v>0.001123417855180349</v>
       </c>
       <c r="T13">
-        <v>0.004636848964945887</v>
+        <v>0.001123417855180349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N14">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O14">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P14">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q14">
-        <v>2.796012613103333</v>
+        <v>0.39486574736</v>
       </c>
       <c r="R14">
-        <v>25.16411351793</v>
+        <v>3.55379172624</v>
       </c>
       <c r="S14">
-        <v>0.01539403269319056</v>
+        <v>0.002241816560436863</v>
       </c>
       <c r="T14">
-        <v>0.01539403269319056</v>
+        <v>0.002241816560436862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N15">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O15">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P15">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q15">
-        <v>0.3594748784123333</v>
+        <v>0.08827941599866668</v>
       </c>
       <c r="R15">
-        <v>3.235273905711</v>
+        <v>0.7945147439879999</v>
       </c>
       <c r="S15">
-        <v>0.00197916418714512</v>
+        <v>0.0005011988455688315</v>
       </c>
       <c r="T15">
-        <v>0.00197916418714512</v>
+        <v>0.0005011988455688313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N16">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O16">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P16">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q16">
-        <v>2.882903539897333</v>
+        <v>0.2523776691966667</v>
       </c>
       <c r="R16">
-        <v>25.94613185907599</v>
+        <v>2.27139902277</v>
       </c>
       <c r="S16">
-        <v>0.01587242887836508</v>
+        <v>0.001432852664664572</v>
       </c>
       <c r="T16">
-        <v>0.01587242887836508</v>
+        <v>0.001432852664664572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N17">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O17">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P17">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q17">
-        <v>12.76112303284622</v>
+        <v>20.50531931079378</v>
       </c>
       <c r="R17">
-        <v>114.850107295616</v>
+        <v>184.547873797144</v>
       </c>
       <c r="S17">
-        <v>0.07025903397174758</v>
+        <v>0.1164171993021038</v>
       </c>
       <c r="T17">
-        <v>0.0702590339717476</v>
+        <v>0.1164171993021038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N18">
         <v>14.679873</v>
       </c>
       <c r="O18">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P18">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q18">
-        <v>1.636970580297</v>
+        <v>2.635456395429001</v>
       </c>
       <c r="R18">
-        <v>14.732735222673</v>
+        <v>23.719107558861</v>
       </c>
       <c r="S18">
-        <v>0.009012684174880662</v>
+        <v>0.0149625786259841</v>
       </c>
       <c r="T18">
-        <v>0.009012684174880664</v>
+        <v>0.0149625786259841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N19">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O19">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P19">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q19">
-        <v>5.434634343578889</v>
+        <v>5.259138231013333</v>
       </c>
       <c r="R19">
-        <v>48.91170909221</v>
+        <v>47.33224407912</v>
       </c>
       <c r="S19">
-        <v>0.0299215169375553</v>
+        <v>0.0298583081939577</v>
       </c>
       <c r="T19">
-        <v>0.0299215169375553</v>
+        <v>0.0298583081939577</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N20">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O20">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P20">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q20">
-        <v>0.6987144874518889</v>
+        <v>1.175775956243778</v>
       </c>
       <c r="R20">
-        <v>6.288430387067</v>
+        <v>10.581983606194</v>
       </c>
       <c r="S20">
-        <v>0.003846918863181376</v>
+        <v>0.006675367584283418</v>
       </c>
       <c r="T20">
-        <v>0.003846918863181377</v>
+        <v>0.006675367584283416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H21">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N21">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O21">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P21">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q21">
-        <v>5.603525003330223</v>
+        <v>3.361367901876112</v>
       </c>
       <c r="R21">
-        <v>50.43172502997199</v>
+        <v>30.252311116885</v>
       </c>
       <c r="S21">
-        <v>0.03085137981642868</v>
+        <v>0.01908387921344968</v>
       </c>
       <c r="T21">
-        <v>0.03085137981642868</v>
+        <v>0.01908387921344968</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H22">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.14600533333333</v>
+        <v>38.07253066666667</v>
       </c>
       <c r="N22">
-        <v>114.438016</v>
+        <v>114.217592</v>
       </c>
       <c r="O22">
-        <v>0.4882777473696396</v>
+        <v>0.6225607471741131</v>
       </c>
       <c r="P22">
-        <v>0.4882777473696397</v>
+        <v>0.622560747174113</v>
       </c>
       <c r="Q22">
-        <v>2.931406071850667</v>
+        <v>8.671056931863999</v>
       </c>
       <c r="R22">
-        <v>26.382654646656</v>
+        <v>78.039512386776</v>
       </c>
       <c r="S22">
-        <v>0.01613946972041744</v>
+        <v>0.04922918525171813</v>
       </c>
       <c r="T22">
-        <v>0.01613946972041744</v>
+        <v>0.04922918525171812</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H23">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.893291</v>
+        <v>4.893291000000001</v>
       </c>
       <c r="N23">
         <v>14.679873</v>
       </c>
       <c r="O23">
-        <v>0.06263526379304228</v>
+        <v>0.08001493065359924</v>
       </c>
       <c r="P23">
-        <v>0.0626352637930423</v>
+        <v>0.08001493065359921</v>
       </c>
       <c r="Q23">
-        <v>0.3760347334769999</v>
+        <v>1.114451918541</v>
       </c>
       <c r="R23">
-        <v>3.384312601293</v>
+        <v>10.030067266869</v>
       </c>
       <c r="S23">
-        <v>0.002070337935455587</v>
+        <v>0.006327205597091342</v>
       </c>
       <c r="T23">
-        <v>0.002070337935455588</v>
+        <v>0.00632720559709134</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H24">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.24540333333333</v>
+        <v>9.764719999999999</v>
       </c>
       <c r="N24">
-        <v>48.73621</v>
+        <v>29.29416</v>
       </c>
       <c r="O24">
-        <v>0.2079449440484332</v>
+        <v>0.1596723746149194</v>
       </c>
       <c r="P24">
-        <v>0.2079449440484333</v>
+        <v>0.1596723746149193</v>
       </c>
       <c r="Q24">
-        <v>1.248410509956666</v>
+        <v>2.22392474472</v>
       </c>
       <c r="R24">
-        <v>11.23569458961</v>
+        <v>20.01532270248</v>
       </c>
       <c r="S24">
-        <v>0.006873385375563532</v>
+        <v>0.01262614282249508</v>
       </c>
       <c r="T24">
-        <v>0.006873385375563533</v>
+        <v>0.01262614282249508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H25">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.088622333333333</v>
+        <v>2.183080666666667</v>
       </c>
       <c r="N25">
-        <v>6.265867</v>
+        <v>6.549242</v>
       </c>
       <c r="O25">
-        <v>0.02673485202747452</v>
+        <v>0.03569766199364528</v>
       </c>
       <c r="P25">
-        <v>0.02673485202747453</v>
+        <v>0.03569766199364527</v>
       </c>
       <c r="Q25">
-        <v>0.1605043604496667</v>
+        <v>0.497198804914</v>
       </c>
       <c r="R25">
-        <v>1.444539244047</v>
+        <v>4.474789244226</v>
       </c>
       <c r="S25">
-        <v>0.0008836903526767087</v>
+        <v>0.002822803755802635</v>
       </c>
       <c r="T25">
-        <v>0.000883690352676709</v>
+        <v>0.002822803755802634</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H26">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.75025733333333</v>
+        <v>6.241101666666666</v>
       </c>
       <c r="N26">
-        <v>50.250772</v>
+        <v>18.723305</v>
       </c>
       <c r="O26">
-        <v>0.2144071927614103</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="P26">
-        <v>0.2144071927614104</v>
+        <v>0.102054285563723</v>
       </c>
       <c r="Q26">
-        <v>1.287207025294667</v>
+        <v>1.421417145685</v>
       </c>
       <c r="R26">
-        <v>11.584863227652</v>
+        <v>12.792754311165</v>
       </c>
       <c r="S26">
-        <v>0.007086987711510136</v>
+        <v>0.008069974460409043</v>
       </c>
       <c r="T26">
-        <v>0.007086987711510138</v>
+        <v>0.008069974460409043</v>
       </c>
     </row>
   </sheetData>
